--- a/Data/proyeccion_cantonal.xlsx
+++ b/Data/proyeccion_cantonal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\terremoto2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Earthquake EC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>PORTOVIEJO</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>canton</t>
-  </si>
-  <si>
-    <t>MANGA DEL CURA</t>
   </si>
   <si>
     <t>codigo</t>
@@ -163,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,23 +203,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,7 +224,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -520,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +519,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -785,20 +770,12 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>9003</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5">
-        <v>24585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
@@ -845,11 +822,8 @@
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="8"/>
+    <row r="44" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:N45">
